--- a/indicateurs.xlsx
+++ b/indicateurs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haffa\Documents\ICAM - new start ingé\C5\PI - banc TP\ancien site internet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE0B9A9-DB78-40CF-ADA5-F2046393D004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95C988D-85ED-4AA2-BF7F-67D77791DBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{214AFDC9-DCB9-4837-8F87-B2DB29EE1C76}"/>
   </bookViews>
@@ -948,10 +948,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,10 +1264,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,10 +1580,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1896,10 +1896,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5338,16 +5338,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>152944</xdr:rowOff>
+      <xdr:rowOff>91984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>580209</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>179613</xdr:rowOff>
+      <xdr:rowOff>118653</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5375,8 +5375,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="655320" y="6074773"/>
-          <a:ext cx="4814752" cy="2802526"/>
+          <a:off x="883920" y="5944144"/>
+          <a:ext cx="4801689" cy="2769869"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5878,7 +5878,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5888,7 +5888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469829A9-1CDC-495C-AC0A-DFB74B4A45E8}">
   <dimension ref="B53:E53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
@@ -5922,13 +5922,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9CE6BC-233F-41A9-BF5A-E1D877F87C26}">
-  <dimension ref="A3:E21"/>
+  <dimension ref="A3:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -5940,7 +5944,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -5948,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -5961,7 +5965,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -5969,7 +5973,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -5982,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
@@ -5990,7 +5994,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -6003,18 +6007,18 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>3</v>
       </c>
@@ -6025,7 +6029,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -6043,7 +6047,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>8</v>
       </c>
@@ -6059,6 +6063,7 @@
         <f>C21+D21</f>
         <v>573.14</v>
       </c>
+      <c r="F21" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/indicateurs.xlsx
+++ b/indicateurs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haffa\Documents\ICAM - new start ingé\C5\PI - banc TP\ancien site internet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haffa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95C988D-85ED-4AA2-BF7F-67D77791DBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{777DA735-EA48-4992-93AA-EEF9C78458E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{214AFDC9-DCB9-4837-8F87-B2DB29EE1C76}"/>
   </bookViews>
@@ -948,10 +948,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1264,10 +1264,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,10 +1580,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1896,10 +1896,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2379,13 +2379,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;">
-                  <c:v>294.83</c:v>
+                  <c:v>335.26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>278.31</c:v>
+                  <c:v>389.71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>573.14</c:v>
+                  <c:v>724.97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5336,55 +5336,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>91984</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>118653</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05492E8F-A869-E63C-0B0A-9EC3DB5CA440}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="883920" y="5944144"/>
-          <a:ext cx="4801689" cy="2769869"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -5415,7 +5366,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5453,7 +5404,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5491,7 +5442,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5529,7 +5480,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5567,10 +5518,54 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>624595</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24259CD9-74B2-02E3-EE4E-E19361DEF5E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="792480" y="6027420"/>
+          <a:ext cx="5501395" cy="2766060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5878,7 +5873,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5889,7 +5884,7 @@
   <dimension ref="B53:E53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5925,7 +5920,7 @@
   <dimension ref="A3:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5944,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -5952,7 +5947,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -5965,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -5973,7 +5968,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -5986,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
@@ -5994,7 +5989,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -6007,7 +6002,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -6015,7 +6010,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -6052,16 +6047,14 @@
         <v>8</v>
       </c>
       <c r="C21" s="22">
-        <f>elec!C34</f>
-        <v>294.83</v>
+        <v>335.26</v>
       </c>
       <c r="D21">
-        <f>elec!C35</f>
-        <v>278.31</v>
+        <v>389.71</v>
       </c>
       <c r="E21">
         <f>C21+D21</f>
-        <v>573.14</v>
+        <v>724.97</v>
       </c>
       <c r="F21" s="22"/>
     </row>
@@ -6091,8 +6084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D595449-3626-41FE-AB5B-7DA6444B770A}">
   <dimension ref="A1:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A27" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
